--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dlk1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dlk1-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Dlk1</t>
   </si>
   <si>
     <t>Notch4</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1167573333333333</v>
+        <v>0.506144</v>
       </c>
       <c r="H2">
-        <v>0.350272</v>
+        <v>1.518432</v>
       </c>
       <c r="I2">
-        <v>0.0006433000764991399</v>
+        <v>0.002728503728229319</v>
       </c>
       <c r="J2">
-        <v>0.0006433000764991399</v>
+        <v>0.002728503728229319</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.020559</v>
+        <v>61.156892</v>
       </c>
       <c r="N2">
-        <v>90.061677</v>
+        <v>183.470676</v>
       </c>
       <c r="O2">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="P2">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="Q2">
-        <v>3.505120414016</v>
+        <v>30.954193944448</v>
       </c>
       <c r="R2">
-        <v>31.546083726144</v>
+        <v>278.587745500032</v>
       </c>
       <c r="S2">
-        <v>0.0005680189320913304</v>
+        <v>0.00253972523639352</v>
       </c>
       <c r="T2">
-        <v>0.0005680189320913304</v>
+        <v>0.00253972523639352</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1167573333333333</v>
+        <v>0.506144</v>
       </c>
       <c r="H3">
-        <v>0.350272</v>
+        <v>1.518432</v>
       </c>
       <c r="I3">
-        <v>0.0006433000764991399</v>
+        <v>0.002728503728229319</v>
       </c>
       <c r="J3">
-        <v>0.0006433000764991399</v>
+        <v>0.002728503728229319</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.28081</v>
       </c>
       <c r="O3">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="P3">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="Q3">
-        <v>0.1666053200355555</v>
+        <v>0.7222354322133333</v>
       </c>
       <c r="R3">
-        <v>1.49944788032</v>
+        <v>6.50011888992</v>
       </c>
       <c r="S3">
-        <v>2.699906559241494E-05</v>
+        <v>5.925786848469314E-05</v>
       </c>
       <c r="T3">
-        <v>2.699906559241494E-05</v>
+        <v>5.925786848469312E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1167573333333333</v>
+        <v>0.506144</v>
       </c>
       <c r="H4">
-        <v>0.350272</v>
+        <v>1.518432</v>
       </c>
       <c r="I4">
-        <v>0.0006433000764991399</v>
+        <v>0.002728503728229319</v>
       </c>
       <c r="J4">
-        <v>0.0006433000764991399</v>
+        <v>0.002728503728229319</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.483919333333334</v>
+        <v>2.00294</v>
       </c>
       <c r="N4">
-        <v>4.451758000000001</v>
+        <v>6.00882</v>
       </c>
       <c r="O4">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="P4">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="Q4">
-        <v>0.1732584642417778</v>
+        <v>1.01377606336</v>
       </c>
       <c r="R4">
-        <v>1.559326178176</v>
+        <v>9.123984570239999</v>
       </c>
       <c r="S4">
-        <v>2.8077234505516E-05</v>
+        <v>8.317815210396954E-05</v>
       </c>
       <c r="T4">
-        <v>2.8077234505516E-05</v>
+        <v>8.317815210396952E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1167573333333333</v>
+        <v>0.506144</v>
       </c>
       <c r="H5">
-        <v>0.350272</v>
+        <v>1.518432</v>
       </c>
       <c r="I5">
-        <v>0.0006433000764991399</v>
+        <v>0.002728503728229319</v>
       </c>
       <c r="J5">
-        <v>0.0006433000764991399</v>
+        <v>0.002728503728229319</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.067853</v>
+        <v>1.115932333333334</v>
       </c>
       <c r="N5">
-        <v>3.203559</v>
+        <v>3.347797</v>
       </c>
       <c r="O5">
-        <v>0.03140811737476231</v>
+        <v>0.01698457318114416</v>
       </c>
       <c r="P5">
-        <v>0.0314081173747623</v>
+        <v>0.01698457318114415</v>
       </c>
       <c r="Q5">
-        <v>0.124679668672</v>
+        <v>0.5648224549226668</v>
       </c>
       <c r="R5">
-        <v>1.122117018048</v>
+        <v>5.083402094304001</v>
       </c>
       <c r="S5">
-        <v>2.020484430987856E-05</v>
+        <v>4.634247124713554E-05</v>
       </c>
       <c r="T5">
-        <v>2.020484430987855E-05</v>
+        <v>4.634247124713552E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>522.552765</v>
       </c>
       <c r="I6">
-        <v>0.9597062674131449</v>
+        <v>0.9389865120723476</v>
       </c>
       <c r="J6">
-        <v>0.959706267413145</v>
+        <v>0.9389865120723477</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.020559</v>
+        <v>61.156892</v>
       </c>
       <c r="N6">
-        <v>90.061677</v>
+        <v>183.470676</v>
       </c>
       <c r="O6">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="P6">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="Q6">
-        <v>5229.108704098546</v>
+        <v>10652.56767113546</v>
       </c>
       <c r="R6">
-        <v>47061.97833688691</v>
+        <v>95873.10904021915</v>
       </c>
       <c r="S6">
-        <v>0.8473982035009134</v>
+        <v>0.8740203345409689</v>
       </c>
       <c r="T6">
-        <v>0.8473982035009135</v>
+        <v>0.8740203345409691</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>522.552765</v>
       </c>
       <c r="I7">
-        <v>0.9597062674131449</v>
+        <v>0.9389865120723476</v>
       </c>
       <c r="J7">
-        <v>0.959706267413145</v>
+        <v>0.9389865120723477</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>4.28081</v>
       </c>
       <c r="O7">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="P7">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="Q7">
         <v>248.5499002155167</v>
@@ -883,10 +883,10 @@
         <v>2236.94910193965</v>
       </c>
       <c r="S7">
-        <v>0.04027851606104053</v>
+        <v>0.02039298633371976</v>
       </c>
       <c r="T7">
-        <v>0.04027851606104054</v>
+        <v>0.02039298633371976</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>522.552765</v>
       </c>
       <c r="I8">
-        <v>0.9597062674131449</v>
+        <v>0.9389865120723476</v>
       </c>
       <c r="J8">
-        <v>0.959706267413145</v>
+        <v>0.9389865120723477</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.483919333333334</v>
+        <v>2.00294</v>
       </c>
       <c r="N8">
-        <v>4.451758000000001</v>
+        <v>6.00882</v>
       </c>
       <c r="O8">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="P8">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="Q8">
-        <v>258.4753835567634</v>
+        <v>348.8806117097</v>
       </c>
       <c r="R8">
-        <v>2326.27845201087</v>
+        <v>3139.9255053873</v>
       </c>
       <c r="S8">
-        <v>0.04188698075898387</v>
+        <v>0.02862490606725876</v>
       </c>
       <c r="T8">
-        <v>0.04188698075898387</v>
+        <v>0.02862490606725876</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>522.552765</v>
       </c>
       <c r="I9">
-        <v>0.9597062674131449</v>
+        <v>0.9389865120723476</v>
       </c>
       <c r="J9">
-        <v>0.959706267413145</v>
+        <v>0.9389865120723477</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.067853</v>
+        <v>1.115932333333334</v>
       </c>
       <c r="N9">
-        <v>3.203559</v>
+        <v>3.347797</v>
       </c>
       <c r="O9">
-        <v>0.03140811737476231</v>
+        <v>0.01698457318114416</v>
       </c>
       <c r="P9">
-        <v>0.0314081173747623</v>
+        <v>0.01698457318114415</v>
       </c>
       <c r="Q9">
-        <v>186.003179254515</v>
+        <v>194.3778421120784</v>
       </c>
       <c r="R9">
-        <v>1674.028613290635</v>
+        <v>1749.400579008705</v>
       </c>
       <c r="S9">
-        <v>0.03014256709220708</v>
+        <v>0.01594828513040009</v>
       </c>
       <c r="T9">
-        <v>0.03014256709220708</v>
+        <v>0.01594828513040009</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.196452999999999</v>
+        <v>10.788518</v>
       </c>
       <c r="H10">
-        <v>21.589359</v>
+        <v>32.365554</v>
       </c>
       <c r="I10">
-        <v>0.03965043251035593</v>
+        <v>0.05815837308171015</v>
       </c>
       <c r="J10">
-        <v>0.03965043251035594</v>
+        <v>0.05815837308171016</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.020559</v>
+        <v>61.156892</v>
       </c>
       <c r="N10">
-        <v>90.061677</v>
+        <v>183.470676</v>
       </c>
       <c r="O10">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="P10">
-        <v>0.8829766276144534</v>
+        <v>0.9308124486389074</v>
       </c>
       <c r="Q10">
-        <v>216.041541877227</v>
+        <v>659.7922301660559</v>
       </c>
       <c r="R10">
-        <v>1944.373876895043</v>
+        <v>5938.130071494503</v>
       </c>
       <c r="S10">
-        <v>0.03501040518144857</v>
+        <v>0.05413453765704175</v>
       </c>
       <c r="T10">
-        <v>0.03501040518144857</v>
+        <v>0.05413453765704176</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.196452999999999</v>
+        <v>10.788518</v>
       </c>
       <c r="H11">
-        <v>21.589359</v>
+        <v>32.365554</v>
       </c>
       <c r="I11">
-        <v>0.03965043251035593</v>
+        <v>0.05815837308171015</v>
       </c>
       <c r="J11">
-        <v>0.03965043251035594</v>
+        <v>0.05815837308171016</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>4.28081</v>
       </c>
       <c r="O11">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="P11">
-        <v>0.04196962907162197</v>
+        <v>0.02171808228502914</v>
       </c>
       <c r="Q11">
-        <v>10.26888265564333</v>
+        <v>15.39453191319333</v>
       </c>
       <c r="R11">
-        <v>92.41994390078999</v>
+        <v>138.55078721874</v>
       </c>
       <c r="S11">
-        <v>0.001664113944989019</v>
+        <v>0.001263088332152005</v>
       </c>
       <c r="T11">
-        <v>0.00166411394498902</v>
+        <v>0.001263088332152005</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.196452999999999</v>
+        <v>10.788518</v>
       </c>
       <c r="H12">
-        <v>21.589359</v>
+        <v>32.365554</v>
       </c>
       <c r="I12">
-        <v>0.03965043251035593</v>
+        <v>0.05815837308171015</v>
       </c>
       <c r="J12">
-        <v>0.03965043251035594</v>
+        <v>0.05815837308171016</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.483919333333334</v>
+        <v>2.00294</v>
       </c>
       <c r="N12">
-        <v>4.451758000000001</v>
+        <v>6.00882</v>
       </c>
       <c r="O12">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="P12">
-        <v>0.04364562593916238</v>
+        <v>0.03048489589491914</v>
       </c>
       <c r="Q12">
-        <v>10.67895573812467</v>
+        <v>21.60875424292</v>
       </c>
       <c r="R12">
-        <v>96.11060164312201</v>
+        <v>194.47878818628</v>
       </c>
       <c r="S12">
-        <v>0.001730567945672998</v>
+        <v>0.001772951948813802</v>
       </c>
       <c r="T12">
-        <v>0.001730567945672998</v>
+        <v>0.001772951948813802</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>10.788518</v>
+      </c>
+      <c r="H13">
+        <v>32.365554</v>
+      </c>
+      <c r="I13">
+        <v>0.05815837308171015</v>
+      </c>
+      <c r="J13">
+        <v>0.05815837308171016</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.115932333333334</v>
+      </c>
+      <c r="N13">
+        <v>3.347797</v>
+      </c>
+      <c r="O13">
+        <v>0.01698457318114416</v>
+      </c>
+      <c r="P13">
+        <v>0.01698457318114415</v>
+      </c>
+      <c r="Q13">
+        <v>12.03925606494867</v>
+      </c>
+      <c r="R13">
+        <v>108.353304584538</v>
+      </c>
+      <c r="S13">
+        <v>0.0009877951437025905</v>
+      </c>
+      <c r="T13">
+        <v>0.0009877951437025905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>7.196452999999999</v>
-      </c>
-      <c r="H13">
-        <v>21.589359</v>
-      </c>
-      <c r="I13">
-        <v>0.03965043251035593</v>
-      </c>
-      <c r="J13">
-        <v>0.03965043251035594</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.067853</v>
-      </c>
-      <c r="N13">
-        <v>3.203559</v>
-      </c>
-      <c r="O13">
-        <v>0.03140811737476231</v>
-      </c>
-      <c r="P13">
-        <v>0.0314081173747623</v>
-      </c>
-      <c r="Q13">
-        <v>7.684753925409</v>
-      </c>
-      <c r="R13">
-        <v>69.162785328681</v>
-      </c>
-      <c r="S13">
-        <v>0.001245345438245351</v>
-      </c>
-      <c r="T13">
-        <v>0.001245345438245351</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02348666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.07045999999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.0001266111177129024</v>
+      </c>
+      <c r="J14">
+        <v>0.0001266111177129024</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>61.156892</v>
+      </c>
+      <c r="N14">
+        <v>183.470676</v>
+      </c>
+      <c r="O14">
+        <v>0.9308124486389074</v>
+      </c>
+      <c r="P14">
+        <v>0.9308124486389074</v>
+      </c>
+      <c r="Q14">
+        <v>1.436371536773333</v>
+      </c>
+      <c r="R14">
+        <v>12.92734383096</v>
+      </c>
+      <c r="S14">
+        <v>0.0001178512045032556</v>
+      </c>
+      <c r="T14">
+        <v>0.0001178512045032556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02348666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.07045999999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.0001266111177129024</v>
+      </c>
+      <c r="J15">
+        <v>0.0001266111177129024</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.426936666666667</v>
+      </c>
+      <c r="N15">
+        <v>4.28081</v>
+      </c>
+      <c r="O15">
+        <v>0.02171808228502914</v>
+      </c>
+      <c r="P15">
+        <v>0.02171808228502914</v>
+      </c>
+      <c r="Q15">
+        <v>0.03351398584444444</v>
+      </c>
+      <c r="R15">
+        <v>0.3016258726</v>
+      </c>
+      <c r="S15">
+        <v>2.749750672688324E-06</v>
+      </c>
+      <c r="T15">
+        <v>2.749750672688324E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02348666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.07045999999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.0001266111177129024</v>
+      </c>
+      <c r="J16">
+        <v>0.0001266111177129024</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.00294</v>
+      </c>
+      <c r="N16">
+        <v>6.00882</v>
+      </c>
+      <c r="O16">
+        <v>0.03048489589491914</v>
+      </c>
+      <c r="P16">
+        <v>0.03048489589491914</v>
+      </c>
+      <c r="Q16">
+        <v>0.04704238413333334</v>
+      </c>
+      <c r="R16">
+        <v>0.4233814572</v>
+      </c>
+      <c r="S16">
+        <v>3.859726742617182E-06</v>
+      </c>
+      <c r="T16">
+        <v>3.859726742617181E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02348666666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.07045999999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.0001266111177129024</v>
+      </c>
+      <c r="J17">
+        <v>0.0001266111177129024</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.115932333333334</v>
+      </c>
+      <c r="N17">
+        <v>3.347797</v>
+      </c>
+      <c r="O17">
+        <v>0.01698457318114416</v>
+      </c>
+      <c r="P17">
+        <v>0.01698457318114415</v>
+      </c>
+      <c r="Q17">
+        <v>0.02620953073555556</v>
+      </c>
+      <c r="R17">
+        <v>0.23588577662</v>
+      </c>
+      <c r="S17">
+        <v>2.150435794341247E-06</v>
+      </c>
+      <c r="T17">
+        <v>2.150435794341247E-06</v>
       </c>
     </row>
   </sheetData>
